--- a/Configs/ServerConfig/Excel/Server/MachineConfig.xlsx
+++ b/Configs/ServerConfig/Excel/Server/MachineConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestProject\TE-Fantasy\Configs\ServerConfig\Excel\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0C31F7-D1CF-5744-82F4-318C79049089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12FF40C-4629-4E2D-A040-302255048F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1095" yWindow="2910" windowWidth="25335" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MachineConfig" sheetId="8" r:id="rId1"/>
@@ -141,7 +141,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>127.0.0.1</t>
+    <t>10.12.5.235</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -149,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -573,19 +573,19 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -606,7 +606,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -616,7 +616,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="18">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -634,7 +634,7 @@
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="18">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
@@ -654,7 +654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="16">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
@@ -672,7 +672,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="16">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
@@ -682,7 +682,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="16">
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B7" s="6">
         <v>1</v>
       </c>
